--- a/ZIEGLER_NICHOLS_EQUATIONS.xlsx
+++ b/ZIEGLER_NICHOLS_EQUATIONS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="-20" windowWidth="25600" windowHeight="26680" tabRatio="500"/>
+    <workbookView xWindow="25600" yWindow="13320" windowWidth="25600" windowHeight="13340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,8 +94,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -104,11 +136,43 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -441,7 +505,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -519,12 +583,12 @@
         <v>0.46199999999999997</v>
       </c>
       <c r="C6">
-        <f>2.5*B6/B2</f>
-        <v>0.28874999999999995</v>
+        <f>2*B6/B2</f>
+        <v>0.23099999999999998</v>
       </c>
       <c r="D6">
-        <f>3*B6*B2/20</f>
-        <v>0.2772</v>
+        <f>B6*B2/3</f>
+        <v>0.61599999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4">
